--- a/Code/Results/Cases/Case_4_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000115030069943</v>
+        <v>1.036642952388835</v>
       </c>
       <c r="D2">
-        <v>1.017095716114826</v>
+        <v>1.039738277539773</v>
       </c>
       <c r="E2">
-        <v>1.008289781097769</v>
+        <v>1.040291862911117</v>
       </c>
       <c r="F2">
-        <v>0.9769764534641775</v>
+        <v>1.035332380744921</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040241204008686</v>
+        <v>1.037613750980864</v>
       </c>
       <c r="J2">
-        <v>1.022292301152639</v>
+        <v>1.04175015313205</v>
       </c>
       <c r="K2">
-        <v>1.028321909440285</v>
+        <v>1.042522612503839</v>
       </c>
       <c r="L2">
-        <v>1.019634821677274</v>
+        <v>1.043074626300238</v>
       </c>
       <c r="M2">
-        <v>0.9887661430456444</v>
+        <v>1.038129288691706</v>
       </c>
       <c r="N2">
-        <v>1.010609925077568</v>
+        <v>1.017745021418722</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00630832823335</v>
+        <v>1.037863676982625</v>
       </c>
       <c r="D3">
-        <v>1.021819078968007</v>
+        <v>1.040681248606848</v>
       </c>
       <c r="E3">
-        <v>1.013968492414943</v>
+        <v>1.041461484360525</v>
       </c>
       <c r="F3">
-        <v>0.9859265355931817</v>
+        <v>1.037184107460091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042392394970816</v>
+        <v>1.037967134636404</v>
       </c>
       <c r="J3">
-        <v>1.026628486749446</v>
+        <v>1.042613562020152</v>
       </c>
       <c r="K3">
-        <v>1.032180189473746</v>
+        <v>1.043275514051108</v>
       </c>
       <c r="L3">
-        <v>1.024425709861656</v>
+        <v>1.044053696011068</v>
       </c>
       <c r="M3">
-        <v>0.9967427134318058</v>
+        <v>1.039787619361562</v>
       </c>
       <c r="N3">
-        <v>1.012127377481151</v>
+        <v>1.018041305644086</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010201722728995</v>
+        <v>1.038652500384664</v>
       </c>
       <c r="D4">
-        <v>1.024790741453719</v>
+        <v>1.041290447999952</v>
       </c>
       <c r="E4">
-        <v>1.017543342163021</v>
+        <v>1.04221760150363</v>
       </c>
       <c r="F4">
-        <v>0.9915411300051743</v>
+        <v>1.038381021438111</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04373337004064</v>
+        <v>1.038194078464145</v>
       </c>
       <c r="J4">
-        <v>1.029348019081918</v>
+        <v>1.043170687962958</v>
       </c>
       <c r="K4">
-        <v>1.034598895036574</v>
+        <v>1.043761106910434</v>
       </c>
       <c r="L4">
-        <v>1.027434546738883</v>
+        <v>1.044685943549353</v>
       </c>
       <c r="M4">
-        <v>1.001742729762966</v>
+        <v>1.040858979652045</v>
       </c>
       <c r="N4">
-        <v>1.01307830170776</v>
+        <v>1.018232261827174</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011812619767171</v>
+        <v>1.038983870691209</v>
       </c>
       <c r="D5">
-        <v>1.026020757976922</v>
+        <v>1.041546326850872</v>
       </c>
       <c r="E5">
-        <v>1.019023585038245</v>
+        <v>1.042535307802231</v>
       </c>
       <c r="F5">
-        <v>0.9938618131665713</v>
+        <v>1.038883910036971</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044285437461844</v>
+        <v>1.038289075575947</v>
       </c>
       <c r="J5">
-        <v>1.030471676416775</v>
+        <v>1.043404534141767</v>
       </c>
       <c r="K5">
-        <v>1.035597970417955</v>
+        <v>1.043964873409088</v>
       </c>
       <c r="L5">
-        <v>1.028678724699419</v>
+        <v>1.044951438370533</v>
       </c>
       <c r="M5">
-        <v>1.003808413706536</v>
+        <v>1.041308985224976</v>
       </c>
       <c r="N5">
-        <v>1.013470999886404</v>
+        <v>1.018312358934858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012081617820284</v>
+        <v>1.039039494629369</v>
       </c>
       <c r="D6">
-        <v>1.026226180717203</v>
+        <v>1.041589276709495</v>
       </c>
       <c r="E6">
-        <v>1.019270831687665</v>
+        <v>1.042588642498831</v>
       </c>
       <c r="F6">
-        <v>0.9942492100718127</v>
+        <v>1.038968330341428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044377461742768</v>
+        <v>1.038305002004506</v>
       </c>
       <c r="J6">
-        <v>1.03065922016069</v>
+        <v>1.043443776366964</v>
       </c>
       <c r="K6">
-        <v>1.035764703363624</v>
+        <v>1.043999064685632</v>
       </c>
       <c r="L6">
-        <v>1.028886441769348</v>
+        <v>1.04499599850681</v>
       </c>
       <c r="M6">
-        <v>1.004153184378342</v>
+        <v>1.04138452032115</v>
       </c>
       <c r="N6">
-        <v>1.01353653050026</v>
+        <v>1.018325797013009</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010223347528014</v>
+        <v>1.038656929151932</v>
       </c>
       <c r="D7">
-        <v>1.024807251451118</v>
+        <v>1.041293867960523</v>
       </c>
       <c r="E7">
-        <v>1.01756320857888</v>
+        <v>1.042221847355866</v>
       </c>
       <c r="F7">
-        <v>0.9915722917732676</v>
+        <v>1.038387742201108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043740792013768</v>
+        <v>1.038195349429705</v>
       </c>
       <c r="J7">
-        <v>1.029363109308441</v>
+        <v>1.043173814075165</v>
       </c>
       <c r="K7">
-        <v>1.034612313344574</v>
+        <v>1.043763831125409</v>
       </c>
       <c r="L7">
-        <v>1.027451251607547</v>
+        <v>1.044689492286724</v>
       </c>
       <c r="M7">
-        <v>1.001770471360861</v>
+        <v>1.040864994184964</v>
       </c>
       <c r="N7">
-        <v>1.013083576307861</v>
+        <v>1.018233332798166</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00223260216404</v>
+        <v>1.037055725573397</v>
       </c>
       <c r="D8">
-        <v>1.018710158077012</v>
+        <v>1.040057160647984</v>
       </c>
       <c r="E8">
-        <v>1.010230338114908</v>
+        <v>1.040687290404992</v>
       </c>
       <c r="F8">
-        <v>0.9800394140397314</v>
+        <v>1.035958451926596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040979099062186</v>
+        <v>1.037733535463006</v>
       </c>
       <c r="J8">
-        <v>1.023776239010288</v>
+        <v>1.042042270637085</v>
       </c>
       <c r="K8">
-        <v>1.029642515018779</v>
+        <v>1.042777388855474</v>
       </c>
       <c r="L8">
-        <v>1.021273493442904</v>
+        <v>1.043405773782168</v>
       </c>
       <c r="M8">
-        <v>0.9914967291301797</v>
+        <v>1.038690085635393</v>
       </c>
       <c r="N8">
-        <v>1.011129383666879</v>
+        <v>1.017845309904221</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9872072878144214</v>
+        <v>1.034225830044831</v>
       </c>
       <c r="D9">
-        <v>1.007268208530405</v>
+        <v>1.037870405515538</v>
       </c>
       <c r="E9">
-        <v>0.9964843435746893</v>
+        <v>1.037977629801778</v>
       </c>
       <c r="F9">
-        <v>0.9582321068340297</v>
+        <v>1.031667426823777</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035695836133176</v>
+        <v>1.036906528392526</v>
       </c>
       <c r="J9">
-        <v>1.013220020650867</v>
+        <v>1.040036272047263</v>
       </c>
       <c r="K9">
-        <v>1.02024445458006</v>
+        <v>1.041026893837978</v>
       </c>
       <c r="L9">
-        <v>1.009634718544688</v>
+        <v>1.041133769764197</v>
       </c>
       <c r="M9">
-        <v>0.9720412521445631</v>
+        <v>1.034844203091048</v>
       </c>
       <c r="N9">
-        <v>1.007431562677098</v>
+        <v>1.01715570354114</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9764438791824281</v>
+        <v>1.032333325969597</v>
       </c>
       <c r="D10">
-        <v>0.999092915623772</v>
+        <v>1.036407341673452</v>
       </c>
       <c r="E10">
-        <v>0.9866696197119376</v>
+        <v>1.036167204746022</v>
       </c>
       <c r="F10">
-        <v>0.9424851774658067</v>
+        <v>1.028799079742597</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031852031026917</v>
+        <v>1.036346200070086</v>
       </c>
       <c r="J10">
-        <v>1.005624307586751</v>
+        <v>1.038690613471609</v>
       </c>
       <c r="K10">
-        <v>1.013478567095768</v>
+        <v>1.039851485495099</v>
       </c>
       <c r="L10">
-        <v>1.001283802972469</v>
+        <v>1.039612206023919</v>
       </c>
       <c r="M10">
-        <v>0.9579767910046971</v>
+        <v>1.032270605199295</v>
       </c>
       <c r="N10">
-        <v>1.004768454559521</v>
+        <v>1.016691963932852</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9715769179860247</v>
+        <v>1.031512386805493</v>
       </c>
       <c r="D11">
-        <v>0.9954026880077704</v>
+        <v>1.035772539978639</v>
       </c>
       <c r="E11">
-        <v>0.9822401392283022</v>
+        <v>1.03538227220481</v>
       </c>
       <c r="F11">
-        <v>0.9353234293575957</v>
+        <v>1.027555072168239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030100467128342</v>
+        <v>1.036101418001083</v>
       </c>
       <c r="J11">
-        <v>1.002181872074859</v>
+        <v>1.038105906604215</v>
       </c>
       <c r="K11">
-        <v>1.01041182681359</v>
+        <v>1.039340486971011</v>
       </c>
       <c r="L11">
-        <v>0.9975049364774791</v>
+        <v>1.03895166729156</v>
       </c>
       <c r="M11">
-        <v>0.9515775984307582</v>
+        <v>1.031153767426434</v>
       </c>
       <c r="N11">
-        <v>1.003561288320868</v>
+        <v>1.016490196242529</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.969735225044937</v>
+        <v>1.031207226717638</v>
       </c>
       <c r="D12">
-        <v>0.9940073807187918</v>
+        <v>1.035536549779873</v>
       </c>
       <c r="E12">
-        <v>0.9805653490298252</v>
+        <v>1.035090557390904</v>
       </c>
       <c r="F12">
-        <v>0.9326059777015225</v>
+        <v>1.027092678567816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029435686666468</v>
+        <v>1.036010169191308</v>
       </c>
       <c r="J12">
-        <v>1.000878065289371</v>
+        <v>1.037888411642597</v>
       </c>
       <c r="K12">
-        <v>1.009250297511726</v>
+        <v>1.03915036962049</v>
       </c>
       <c r="L12">
-        <v>0.9960746045308034</v>
+        <v>1.038706055288028</v>
       </c>
       <c r="M12">
-        <v>0.9491492079728782</v>
+        <v>1.030738542958027</v>
       </c>
       <c r="N12">
-        <v>1.003104076607937</v>
+        <v>1.016415104444388</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9701318585007465</v>
+        <v>1.031272694941427</v>
       </c>
       <c r="D13">
-        <v>0.9943078270488095</v>
+        <v>1.035587179430528</v>
       </c>
       <c r="E13">
-        <v>0.9809259751566535</v>
+        <v>1.035153138340249</v>
       </c>
       <c r="F13">
-        <v>0.9331915723779859</v>
+        <v>1.027191877993428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029578944486477</v>
+        <v>1.036029757146933</v>
       </c>
       <c r="J13">
-        <v>1.00115891009874</v>
+        <v>1.037935079090725</v>
       </c>
       <c r="K13">
-        <v>1.009500495180084</v>
+        <v>1.039191164509413</v>
       </c>
       <c r="L13">
-        <v>0.9963826625045008</v>
+        <v>1.038758751665052</v>
       </c>
       <c r="M13">
-        <v>0.9496725224206773</v>
+        <v>1.030827627470288</v>
       </c>
       <c r="N13">
-        <v>1.003202561316759</v>
+        <v>1.016431218530435</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9714253924342742</v>
+        <v>1.031487166834727</v>
       </c>
       <c r="D14">
-        <v>0.9952878657667544</v>
+        <v>1.035753036985649</v>
       </c>
       <c r="E14">
-        <v>0.9821023176326211</v>
+        <v>1.035358162175307</v>
       </c>
       <c r="F14">
-        <v>0.9351000080618861</v>
+        <v>1.027516857052728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030045812000603</v>
+        <v>1.036093882004329</v>
       </c>
       <c r="J14">
-        <v>1.002074624743202</v>
+        <v>1.038087934726278</v>
       </c>
       <c r="K14">
-        <v>1.010316282860078</v>
+        <v>1.03932477815012</v>
       </c>
       <c r="L14">
-        <v>0.9973872632502967</v>
+        <v>1.038931370225598</v>
       </c>
       <c r="M14">
-        <v>0.9513779479525011</v>
+        <v>1.031119452692217</v>
       </c>
       <c r="N14">
-        <v>1.003523679297324</v>
+        <v>1.016483992122744</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9722177981010304</v>
+        <v>1.031619279836951</v>
       </c>
       <c r="D15">
-        <v>0.9958883763680557</v>
+        <v>1.035855201145608</v>
       </c>
       <c r="E15">
-        <v>0.98282311384275</v>
+        <v>1.03548446332474</v>
       </c>
       <c r="F15">
-        <v>0.9362680857726751</v>
+        <v>1.027717045369778</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030331551980238</v>
+        <v>1.03613334820975</v>
       </c>
       <c r="J15">
-        <v>1.00263542937102</v>
+        <v>1.038182073085172</v>
       </c>
       <c r="K15">
-        <v>1.01081588925654</v>
+        <v>1.03940706077681</v>
       </c>
       <c r="L15">
-        <v>0.9980026222526789</v>
+        <v>1.039037691831846</v>
       </c>
       <c r="M15">
-        <v>0.9524217377564079</v>
+        <v>1.031299204950399</v>
       </c>
       <c r="N15">
-        <v>1.003720339870789</v>
+        <v>1.016516488251486</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9767622982752888</v>
+        <v>1.032387777506305</v>
       </c>
       <c r="D16">
-        <v>0.9993344917274772</v>
+        <v>1.036449443994174</v>
       </c>
       <c r="E16">
-        <v>0.9869595993857641</v>
+        <v>1.03621927652694</v>
       </c>
       <c r="F16">
-        <v>0.9429527809526844</v>
+        <v>1.028881597202671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03196635140786</v>
+        <v>1.036362399858833</v>
       </c>
       <c r="J16">
-        <v>1.005849366586821</v>
+        <v>1.038729375464289</v>
       </c>
       <c r="K16">
-        <v>1.013679059425432</v>
+        <v>1.039885355534863</v>
       </c>
       <c r="L16">
-        <v>1.001530979357903</v>
+        <v>1.039656007792517</v>
       </c>
       <c r="M16">
-        <v>0.9583945605359012</v>
+        <v>1.032344673284942</v>
       </c>
       <c r="N16">
-        <v>1.004847374353424</v>
+        <v>1.016705334143528</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9795557795703602</v>
+        <v>1.032869437702934</v>
       </c>
       <c r="D17">
-        <v>1.001454574505451</v>
+        <v>1.036821850257979</v>
       </c>
       <c r="E17">
-        <v>0.989504551759031</v>
+        <v>1.036679932650845</v>
       </c>
       <c r="F17">
-        <v>0.9470502625674277</v>
+        <v>1.029611545886568</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032967764301848</v>
+        <v>1.036505499289274</v>
       </c>
       <c r="J17">
-        <v>1.007822920345854</v>
+        <v>1.039072137969659</v>
       </c>
       <c r="K17">
-        <v>1.015437147739044</v>
+        <v>1.040184828911507</v>
       </c>
       <c r="L17">
-        <v>1.003699141248846</v>
+        <v>1.04004340510142</v>
       </c>
       <c r="M17">
-        <v>0.962055075893602</v>
+        <v>1.032999802324124</v>
       </c>
       <c r="N17">
-        <v>1.005539404088683</v>
+        <v>1.016823532839405</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9811654756971904</v>
+        <v>1.033150240255976</v>
       </c>
       <c r="D18">
-        <v>1.002676833192695</v>
+        <v>1.037038944745858</v>
       </c>
       <c r="E18">
-        <v>0.9909718316385911</v>
+        <v>1.036948528777478</v>
       </c>
       <c r="F18">
-        <v>0.9494075648092601</v>
+        <v>1.030037121140132</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033543540500303</v>
+        <v>1.036588758853144</v>
       </c>
       <c r="J18">
-        <v>1.008959410320873</v>
+        <v>1.039271870166465</v>
       </c>
       <c r="K18">
-        <v>1.016449520428664</v>
+        <v>1.040359310168884</v>
       </c>
       <c r="L18">
-        <v>1.004948244242767</v>
+        <v>1.040269204480932</v>
       </c>
       <c r="M18">
-        <v>0.9641607341735419</v>
+        <v>1.033381692200452</v>
       </c>
       <c r="N18">
-        <v>1.005937892833019</v>
+        <v>1.016892383079686</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.981711081592092</v>
+        <v>1.033245962802696</v>
       </c>
       <c r="D19">
-        <v>1.00309121484722</v>
+        <v>1.037112947463953</v>
       </c>
       <c r="E19">
-        <v>0.9914692981124064</v>
+        <v>1.037040096838226</v>
       </c>
       <c r="F19">
-        <v>0.9502059586051765</v>
+        <v>1.03018219925494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033738482594431</v>
+        <v>1.036617113004374</v>
       </c>
       <c r="J19">
-        <v>1.009344497769235</v>
+        <v>1.039339940669703</v>
       </c>
       <c r="K19">
-        <v>1.01679254418171</v>
+        <v>1.04041877054204</v>
       </c>
       <c r="L19">
-        <v>1.005371581491539</v>
+        <v>1.040346168731874</v>
       </c>
       <c r="M19">
-        <v>0.9648738524502919</v>
+        <v>1.033511867163877</v>
       </c>
       <c r="N19">
-        <v>1.006072911659281</v>
+        <v>1.016915843485609</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9792581221886334</v>
+        <v>1.032817774819299</v>
       </c>
       <c r="D20">
-        <v>1.001228607674133</v>
+        <v>1.036781907420133</v>
       </c>
       <c r="E20">
-        <v>0.9892332931149209</v>
+        <v>1.036630518655789</v>
       </c>
       <c r="F20">
-        <v>0.9466140612340395</v>
+        <v>1.02953324921005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032861191206517</v>
+        <v>1.036490167594411</v>
       </c>
       <c r="J20">
-        <v>1.007612706226495</v>
+        <v>1.039035383036158</v>
       </c>
       <c r="K20">
-        <v>1.015249887845033</v>
+        <v>1.040152718602629</v>
       </c>
       <c r="L20">
-        <v>1.00346814145093</v>
+        <v>1.040001857920458</v>
       </c>
       <c r="M20">
-        <v>0.9616654179969363</v>
+        <v>1.032929537663103</v>
       </c>
       <c r="N20">
-        <v>1.005465694384285</v>
+        <v>1.016810860872991</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9710454395113597</v>
+        <v>1.031424016511099</v>
       </c>
       <c r="D21">
-        <v>0.9949999652040474</v>
+        <v>1.035704201524284</v>
       </c>
       <c r="E21">
-        <v>0.981756749712819</v>
+        <v>1.035297792108018</v>
       </c>
       <c r="F21">
-        <v>0.9345396520555931</v>
+        <v>1.027421167596354</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029908731725327</v>
+        <v>1.036075007842542</v>
       </c>
       <c r="J21">
-        <v>1.001805681525684</v>
+        <v>1.038042931109162</v>
       </c>
       <c r="K21">
-        <v>1.010076688010916</v>
+        <v>1.039285440841275</v>
       </c>
       <c r="L21">
-        <v>0.9970921895929454</v>
+        <v>1.038880545533248</v>
       </c>
       <c r="M21">
-        <v>0.9508772066698621</v>
+        <v>1.03103352806295</v>
       </c>
       <c r="N21">
-        <v>1.003429367531473</v>
+        <v>1.016468455663752</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9656840124415715</v>
+        <v>1.030546390791541</v>
       </c>
       <c r="D22">
-        <v>0.9909402805292242</v>
+        <v>1.035025465932148</v>
       </c>
       <c r="E22">
-        <v>0.976883871692479</v>
+        <v>1.034458949577079</v>
       </c>
       <c r="F22">
-        <v>0.9266132123547908</v>
+        <v>1.026091395421553</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027969766117288</v>
+        <v>1.035812094203495</v>
       </c>
       <c r="J22">
-        <v>0.9980079144209372</v>
+        <v>1.03741714851243</v>
       </c>
       <c r="K22">
-        <v>1.0066933743296</v>
+        <v>1.038738355078544</v>
       </c>
       <c r="L22">
-        <v>0.9929276063846578</v>
+        <v>1.038174034094882</v>
       </c>
       <c r="M22">
-        <v>0.9437935263484153</v>
+        <v>1.029839219765174</v>
       </c>
       <c r="N22">
-        <v>1.002097619040875</v>
+        <v>1.016252324873489</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9685460241912578</v>
+        <v>1.031011763247647</v>
       </c>
       <c r="D23">
-        <v>0.9931067438446877</v>
+        <v>1.035385385653617</v>
       </c>
       <c r="E23">
-        <v>0.9794843119562756</v>
+        <v>1.034903723184135</v>
       </c>
       <c r="F23">
-        <v>0.9308490404341667</v>
+        <v>1.026796510335344</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029005880143139</v>
+        <v>1.035951649130397</v>
       </c>
       <c r="J23">
-        <v>1.00003585617663</v>
+        <v>1.037749058644144</v>
       </c>
       <c r="K23">
-        <v>1.008499995637702</v>
+        <v>1.039028546773545</v>
       </c>
       <c r="L23">
-        <v>0.9951509206503276</v>
+        <v>1.038548712620227</v>
       </c>
       <c r="M23">
-        <v>0.9475790960249498</v>
+        <v>1.030472559101098</v>
       </c>
       <c r="N23">
-        <v>1.002808738641787</v>
+        <v>1.016366980607635</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.979392681394622</v>
+        <v>1.032841119490046</v>
       </c>
       <c r="D24">
-        <v>1.001330756554752</v>
+        <v>1.036799956251528</v>
       </c>
       <c r="E24">
-        <v>0.9893559160275633</v>
+        <v>1.036652847011957</v>
       </c>
       <c r="F24">
-        <v>0.9468112624404629</v>
+        <v>1.02956862869817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032909372666671</v>
+        <v>1.036497095969671</v>
       </c>
       <c r="J24">
-        <v>1.007707738059326</v>
+        <v>1.039051991611901</v>
       </c>
       <c r="K24">
-        <v>1.015334542850185</v>
+        <v>1.040167228475965</v>
       </c>
       <c r="L24">
-        <v>1.003572568203579</v>
+        <v>1.040020631806259</v>
       </c>
       <c r="M24">
-        <v>0.9618415782943771</v>
+        <v>1.032961287966321</v>
       </c>
       <c r="N24">
-        <v>1.00549901652266</v>
+        <v>1.016816587076623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9912143335460158</v>
+        <v>1.034958446422227</v>
       </c>
       <c r="D25">
-        <v>1.010316446261836</v>
+        <v>1.038436642739641</v>
       </c>
       <c r="E25">
-        <v>1.000144980233058</v>
+        <v>1.038678826902359</v>
       </c>
       <c r="F25">
-        <v>0.9640658042821627</v>
+        <v>1.032778056244497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037115053095843</v>
+        <v>1.037121907204055</v>
       </c>
       <c r="J25">
-        <v>1.016041031577228</v>
+        <v>1.040556322957963</v>
       </c>
       <c r="K25">
-        <v>1.022756696107173</v>
+        <v>1.041480908794401</v>
       </c>
       <c r="L25">
-        <v>1.012741045986918</v>
+        <v>1.041722336251369</v>
       </c>
       <c r="M25">
-        <v>0.9772488014510988</v>
+        <v>1.03584011302242</v>
       </c>
       <c r="N25">
-        <v>1.008420256263239</v>
+        <v>1.017334684130749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036642952388835</v>
+        <v>1.000115030069943</v>
       </c>
       <c r="D2">
-        <v>1.039738277539773</v>
+        <v>1.017095716114827</v>
       </c>
       <c r="E2">
-        <v>1.040291862911117</v>
+        <v>1.00828978109777</v>
       </c>
       <c r="F2">
-        <v>1.035332380744921</v>
+        <v>0.9769764534641785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037613750980864</v>
+        <v>1.040241204008687</v>
       </c>
       <c r="J2">
-        <v>1.04175015313205</v>
+        <v>1.022292301152639</v>
       </c>
       <c r="K2">
-        <v>1.042522612503839</v>
+        <v>1.028321909440286</v>
       </c>
       <c r="L2">
-        <v>1.043074626300238</v>
+        <v>1.019634821677275</v>
       </c>
       <c r="M2">
-        <v>1.038129288691706</v>
+        <v>0.9887661430456451</v>
       </c>
       <c r="N2">
-        <v>1.017745021418722</v>
+        <v>1.010609925077568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037863676982625</v>
+        <v>1.006308328233349</v>
       </c>
       <c r="D3">
-        <v>1.040681248606848</v>
+        <v>1.021819078968006</v>
       </c>
       <c r="E3">
-        <v>1.041461484360525</v>
+        <v>1.013968492414942</v>
       </c>
       <c r="F3">
-        <v>1.037184107460091</v>
+        <v>0.985926535593181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037967134636404</v>
+        <v>1.042392394970815</v>
       </c>
       <c r="J3">
-        <v>1.042613562020152</v>
+        <v>1.026628486749446</v>
       </c>
       <c r="K3">
-        <v>1.043275514051108</v>
+        <v>1.032180189473745</v>
       </c>
       <c r="L3">
-        <v>1.044053696011068</v>
+        <v>1.024425709861655</v>
       </c>
       <c r="M3">
-        <v>1.039787619361562</v>
+        <v>0.9967427134318049</v>
       </c>
       <c r="N3">
-        <v>1.018041305644086</v>
+        <v>1.012127377481151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038652500384664</v>
+        <v>1.010201722728994</v>
       </c>
       <c r="D4">
-        <v>1.041290447999952</v>
+        <v>1.024790741453718</v>
       </c>
       <c r="E4">
-        <v>1.04221760150363</v>
+        <v>1.01754334216302</v>
       </c>
       <c r="F4">
-        <v>1.038381021438111</v>
+        <v>0.9915411300051735</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038194078464145</v>
+        <v>1.043733370040639</v>
       </c>
       <c r="J4">
-        <v>1.043170687962958</v>
+        <v>1.029348019081917</v>
       </c>
       <c r="K4">
-        <v>1.043761106910434</v>
+        <v>1.034598895036573</v>
       </c>
       <c r="L4">
-        <v>1.044685943549353</v>
+        <v>1.027434546738882</v>
       </c>
       <c r="M4">
-        <v>1.040858979652045</v>
+        <v>1.001742729762965</v>
       </c>
       <c r="N4">
-        <v>1.018232261827174</v>
+        <v>1.01307830170776</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038983870691209</v>
+        <v>1.01181261976717</v>
       </c>
       <c r="D5">
-        <v>1.041546326850872</v>
+        <v>1.026020757976921</v>
       </c>
       <c r="E5">
-        <v>1.042535307802231</v>
+        <v>1.019023585038243</v>
       </c>
       <c r="F5">
-        <v>1.038883910036971</v>
+        <v>0.9938618131665696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038289075575947</v>
+        <v>1.044285437461843</v>
       </c>
       <c r="J5">
-        <v>1.043404534141767</v>
+        <v>1.030471676416773</v>
       </c>
       <c r="K5">
-        <v>1.043964873409088</v>
+        <v>1.035597970417954</v>
       </c>
       <c r="L5">
-        <v>1.044951438370533</v>
+        <v>1.028678724699418</v>
       </c>
       <c r="M5">
-        <v>1.041308985224976</v>
+        <v>1.003808413706535</v>
       </c>
       <c r="N5">
-        <v>1.018312358934858</v>
+        <v>1.013470999886404</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039039494629369</v>
+        <v>1.012081617820283</v>
       </c>
       <c r="D6">
-        <v>1.041589276709495</v>
+        <v>1.026226180717203</v>
       </c>
       <c r="E6">
-        <v>1.042588642498831</v>
+        <v>1.019270831687665</v>
       </c>
       <c r="F6">
-        <v>1.038968330341428</v>
+        <v>0.9942492100718128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038305002004506</v>
+        <v>1.044377461742768</v>
       </c>
       <c r="J6">
-        <v>1.043443776366964</v>
+        <v>1.03065922016069</v>
       </c>
       <c r="K6">
-        <v>1.043999064685632</v>
+        <v>1.035764703363624</v>
       </c>
       <c r="L6">
-        <v>1.04499599850681</v>
+        <v>1.028886441769347</v>
       </c>
       <c r="M6">
-        <v>1.04138452032115</v>
+        <v>1.004153184378342</v>
       </c>
       <c r="N6">
-        <v>1.018325797013009</v>
+        <v>1.01353653050026</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038656929151932</v>
+        <v>1.010223347528015</v>
       </c>
       <c r="D7">
-        <v>1.041293867960523</v>
+        <v>1.024807251451119</v>
       </c>
       <c r="E7">
-        <v>1.042221847355866</v>
+        <v>1.017563208578881</v>
       </c>
       <c r="F7">
-        <v>1.038387742201108</v>
+        <v>0.9915722917732683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038195349429705</v>
+        <v>1.043740792013769</v>
       </c>
       <c r="J7">
-        <v>1.043173814075165</v>
+        <v>1.029363109308441</v>
       </c>
       <c r="K7">
-        <v>1.043763831125409</v>
+        <v>1.034612313344575</v>
       </c>
       <c r="L7">
-        <v>1.044689492286724</v>
+        <v>1.027451251607548</v>
       </c>
       <c r="M7">
-        <v>1.040864994184964</v>
+        <v>1.001770471360862</v>
       </c>
       <c r="N7">
-        <v>1.018233332798166</v>
+        <v>1.013083576307861</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037055725573397</v>
+        <v>1.00223260216404</v>
       </c>
       <c r="D8">
-        <v>1.040057160647984</v>
+        <v>1.018710158077013</v>
       </c>
       <c r="E8">
-        <v>1.040687290404992</v>
+        <v>1.010230338114909</v>
       </c>
       <c r="F8">
-        <v>1.035958451926596</v>
+        <v>0.9800394140397316</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037733535463006</v>
+        <v>1.040979099062187</v>
       </c>
       <c r="J8">
-        <v>1.042042270637085</v>
+        <v>1.023776239010289</v>
       </c>
       <c r="K8">
-        <v>1.042777388855474</v>
+        <v>1.02964251501878</v>
       </c>
       <c r="L8">
-        <v>1.043405773782168</v>
+        <v>1.021273493442905</v>
       </c>
       <c r="M8">
-        <v>1.038690085635393</v>
+        <v>0.9914967291301801</v>
       </c>
       <c r="N8">
-        <v>1.017845309904221</v>
+        <v>1.01112938366688</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034225830044831</v>
+        <v>0.9872072878144192</v>
       </c>
       <c r="D9">
-        <v>1.037870405515538</v>
+        <v>1.007268208530403</v>
       </c>
       <c r="E9">
-        <v>1.037977629801778</v>
+        <v>0.9964843435746873</v>
       </c>
       <c r="F9">
-        <v>1.031667426823777</v>
+        <v>0.9582321068340272</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036906528392526</v>
+        <v>1.035695836133175</v>
       </c>
       <c r="J9">
-        <v>1.040036272047263</v>
+        <v>1.013220020650864</v>
       </c>
       <c r="K9">
-        <v>1.041026893837978</v>
+        <v>1.020244454580059</v>
       </c>
       <c r="L9">
-        <v>1.041133769764197</v>
+        <v>1.009634718544686</v>
       </c>
       <c r="M9">
-        <v>1.034844203091048</v>
+        <v>0.9720412521445606</v>
       </c>
       <c r="N9">
-        <v>1.01715570354114</v>
+        <v>1.007431562677097</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032333325969597</v>
+        <v>0.9764438791824278</v>
       </c>
       <c r="D10">
-        <v>1.036407341673452</v>
+        <v>0.9990929156237714</v>
       </c>
       <c r="E10">
-        <v>1.036167204746022</v>
+        <v>0.9866696197119368</v>
       </c>
       <c r="F10">
-        <v>1.028799079742597</v>
+        <v>0.9424851774658066</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036346200070086</v>
+        <v>1.031852031026917</v>
       </c>
       <c r="J10">
-        <v>1.038690613471609</v>
+        <v>1.00562430758675</v>
       </c>
       <c r="K10">
-        <v>1.039851485495099</v>
+        <v>1.013478567095767</v>
       </c>
       <c r="L10">
-        <v>1.039612206023919</v>
+        <v>1.001283802972469</v>
       </c>
       <c r="M10">
-        <v>1.032270605199295</v>
+        <v>0.9579767910046968</v>
       </c>
       <c r="N10">
-        <v>1.016691963932852</v>
+        <v>1.00476845455952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031512386805493</v>
+        <v>0.9715769179860245</v>
       </c>
       <c r="D11">
-        <v>1.035772539978639</v>
+        <v>0.9954026880077703</v>
       </c>
       <c r="E11">
-        <v>1.03538227220481</v>
+        <v>0.982240139228302</v>
       </c>
       <c r="F11">
-        <v>1.027555072168239</v>
+        <v>0.9353234293575956</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036101418001083</v>
+        <v>1.030100467128342</v>
       </c>
       <c r="J11">
-        <v>1.038105906604215</v>
+        <v>1.002181872074859</v>
       </c>
       <c r="K11">
-        <v>1.039340486971011</v>
+        <v>1.01041182681359</v>
       </c>
       <c r="L11">
-        <v>1.03895166729156</v>
+        <v>0.9975049364774788</v>
       </c>
       <c r="M11">
-        <v>1.031153767426434</v>
+        <v>0.951577598430758</v>
       </c>
       <c r="N11">
-        <v>1.016490196242529</v>
+        <v>1.003561288320868</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031207226717638</v>
+        <v>0.9697352250449344</v>
       </c>
       <c r="D12">
-        <v>1.035536549779873</v>
+        <v>0.9940073807187894</v>
       </c>
       <c r="E12">
-        <v>1.035090557390904</v>
+        <v>0.9805653490298224</v>
       </c>
       <c r="F12">
-        <v>1.027092678567816</v>
+        <v>0.9326059777015202</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036010169191308</v>
+        <v>1.029435686666467</v>
       </c>
       <c r="J12">
-        <v>1.037888411642597</v>
+        <v>1.000878065289369</v>
       </c>
       <c r="K12">
-        <v>1.03915036962049</v>
+        <v>1.009250297511724</v>
       </c>
       <c r="L12">
-        <v>1.038706055288028</v>
+        <v>0.9960746045308007</v>
       </c>
       <c r="M12">
-        <v>1.030738542958027</v>
+        <v>0.9491492079728759</v>
       </c>
       <c r="N12">
-        <v>1.016415104444388</v>
+        <v>1.003104076607936</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031272694941427</v>
+        <v>0.9701318585007471</v>
       </c>
       <c r="D13">
-        <v>1.035587179430528</v>
+        <v>0.9943078270488103</v>
       </c>
       <c r="E13">
-        <v>1.035153138340249</v>
+        <v>0.9809259751566541</v>
       </c>
       <c r="F13">
-        <v>1.027191877993428</v>
+        <v>0.933191572377987</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036029757146933</v>
+        <v>1.029578944486477</v>
       </c>
       <c r="J13">
-        <v>1.037935079090725</v>
+        <v>1.00115891009874</v>
       </c>
       <c r="K13">
-        <v>1.039191164509413</v>
+        <v>1.009500495180085</v>
       </c>
       <c r="L13">
-        <v>1.038758751665052</v>
+        <v>0.9963826625045015</v>
       </c>
       <c r="M13">
-        <v>1.030827627470288</v>
+        <v>0.9496725224206782</v>
       </c>
       <c r="N13">
-        <v>1.016431218530435</v>
+        <v>1.003202561316759</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031487166834727</v>
+        <v>0.9714253924342753</v>
       </c>
       <c r="D14">
-        <v>1.035753036985649</v>
+        <v>0.9952878657667557</v>
       </c>
       <c r="E14">
-        <v>1.035358162175307</v>
+        <v>0.9821023176326228</v>
       </c>
       <c r="F14">
-        <v>1.027516857052728</v>
+        <v>0.935100008061887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036093882004329</v>
+        <v>1.030045812000604</v>
       </c>
       <c r="J14">
-        <v>1.038087934726278</v>
+        <v>1.002074624743203</v>
       </c>
       <c r="K14">
-        <v>1.03932477815012</v>
+        <v>1.010316282860079</v>
       </c>
       <c r="L14">
-        <v>1.038931370225598</v>
+        <v>0.9973872632502981</v>
       </c>
       <c r="M14">
-        <v>1.031119452692217</v>
+        <v>0.9513779479525019</v>
       </c>
       <c r="N14">
-        <v>1.016483992122744</v>
+        <v>1.003523679297324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031619279836951</v>
+        <v>0.9722177981010292</v>
       </c>
       <c r="D15">
-        <v>1.035855201145608</v>
+        <v>0.9958883763680547</v>
       </c>
       <c r="E15">
-        <v>1.03548446332474</v>
+        <v>0.9828231138427489</v>
       </c>
       <c r="F15">
-        <v>1.027717045369778</v>
+        <v>0.9362680857726738</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03613334820975</v>
+        <v>1.030331551980238</v>
       </c>
       <c r="J15">
-        <v>1.038182073085172</v>
+        <v>1.002635429371019</v>
       </c>
       <c r="K15">
-        <v>1.03940706077681</v>
+        <v>1.010815889256539</v>
       </c>
       <c r="L15">
-        <v>1.039037691831846</v>
+        <v>0.9980026222526777</v>
       </c>
       <c r="M15">
-        <v>1.031299204950399</v>
+        <v>0.9524217377564065</v>
       </c>
       <c r="N15">
-        <v>1.016516488251486</v>
+        <v>1.003720339870789</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032387777506305</v>
+        <v>0.9767622982752892</v>
       </c>
       <c r="D16">
-        <v>1.036449443994174</v>
+        <v>0.9993344917274777</v>
       </c>
       <c r="E16">
-        <v>1.03621927652694</v>
+        <v>0.9869595993857646</v>
       </c>
       <c r="F16">
-        <v>1.028881597202671</v>
+        <v>0.9429527809526855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036362399858833</v>
+        <v>1.031966351407861</v>
       </c>
       <c r="J16">
-        <v>1.038729375464289</v>
+        <v>1.005849366586822</v>
       </c>
       <c r="K16">
-        <v>1.039885355534863</v>
+        <v>1.013679059425433</v>
       </c>
       <c r="L16">
-        <v>1.039656007792517</v>
+        <v>1.001530979357904</v>
       </c>
       <c r="M16">
-        <v>1.032344673284942</v>
+        <v>0.9583945605359021</v>
       </c>
       <c r="N16">
-        <v>1.016705334143528</v>
+        <v>1.004847374353424</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032869437702934</v>
+        <v>0.9795557795703597</v>
       </c>
       <c r="D17">
-        <v>1.036821850257979</v>
+        <v>1.00145457450545</v>
       </c>
       <c r="E17">
-        <v>1.036679932650845</v>
+        <v>0.9895045517590303</v>
       </c>
       <c r="F17">
-        <v>1.029611545886568</v>
+        <v>0.9470502625674267</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036505499289274</v>
+        <v>1.032967764301848</v>
       </c>
       <c r="J17">
-        <v>1.039072137969659</v>
+        <v>1.007822920345853</v>
       </c>
       <c r="K17">
-        <v>1.040184828911507</v>
+        <v>1.015437147739043</v>
       </c>
       <c r="L17">
-        <v>1.04004340510142</v>
+        <v>1.003699141248846</v>
       </c>
       <c r="M17">
-        <v>1.032999802324124</v>
+        <v>0.9620550758936011</v>
       </c>
       <c r="N17">
-        <v>1.016823532839405</v>
+        <v>1.005539404088683</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033150240255976</v>
+        <v>0.9811654756971909</v>
       </c>
       <c r="D18">
-        <v>1.037038944745858</v>
+        <v>1.002676833192696</v>
       </c>
       <c r="E18">
-        <v>1.036948528777478</v>
+        <v>0.9909718316385917</v>
       </c>
       <c r="F18">
-        <v>1.030037121140132</v>
+        <v>0.9494075648092619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036588758853144</v>
+        <v>1.033543540500303</v>
       </c>
       <c r="J18">
-        <v>1.039271870166465</v>
+        <v>1.008959410320874</v>
       </c>
       <c r="K18">
-        <v>1.040359310168884</v>
+        <v>1.016449520428665</v>
       </c>
       <c r="L18">
-        <v>1.040269204480932</v>
+        <v>1.004948244242768</v>
       </c>
       <c r="M18">
-        <v>1.033381692200452</v>
+        <v>0.9641607341735438</v>
       </c>
       <c r="N18">
-        <v>1.016892383079686</v>
+        <v>1.005937892833019</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033245962802696</v>
+        <v>0.9817110815920909</v>
       </c>
       <c r="D19">
-        <v>1.037112947463953</v>
+        <v>1.003091214847219</v>
       </c>
       <c r="E19">
-        <v>1.037040096838226</v>
+        <v>0.9914692981124053</v>
       </c>
       <c r="F19">
-        <v>1.03018219925494</v>
+        <v>0.950205958605175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036617113004374</v>
+        <v>1.03373848259443</v>
       </c>
       <c r="J19">
-        <v>1.039339940669703</v>
+        <v>1.009344497769233</v>
       </c>
       <c r="K19">
-        <v>1.04041877054204</v>
+        <v>1.016792544181709</v>
       </c>
       <c r="L19">
-        <v>1.040346168731874</v>
+        <v>1.005371581491537</v>
       </c>
       <c r="M19">
-        <v>1.033511867163877</v>
+        <v>0.9648738524502904</v>
       </c>
       <c r="N19">
-        <v>1.016915843485609</v>
+        <v>1.006072911659281</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032817774819299</v>
+        <v>0.9792581221886338</v>
       </c>
       <c r="D20">
-        <v>1.036781907420133</v>
+        <v>1.001228607674133</v>
       </c>
       <c r="E20">
-        <v>1.036630518655789</v>
+        <v>0.9892332931149217</v>
       </c>
       <c r="F20">
-        <v>1.02953324921005</v>
+        <v>0.9466140612340401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036490167594411</v>
+        <v>1.032861191206517</v>
       </c>
       <c r="J20">
-        <v>1.039035383036158</v>
+        <v>1.007612706226495</v>
       </c>
       <c r="K20">
-        <v>1.040152718602629</v>
+        <v>1.015249887845034</v>
       </c>
       <c r="L20">
-        <v>1.040001857920458</v>
+        <v>1.00346814145093</v>
       </c>
       <c r="M20">
-        <v>1.032929537663103</v>
+        <v>0.9616654179969369</v>
       </c>
       <c r="N20">
-        <v>1.016810860872991</v>
+        <v>1.005465694384285</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031424016511099</v>
+        <v>0.9710454395113605</v>
       </c>
       <c r="D21">
-        <v>1.035704201524284</v>
+        <v>0.9949999652040479</v>
       </c>
       <c r="E21">
-        <v>1.035297792108018</v>
+        <v>0.9817567497128193</v>
       </c>
       <c r="F21">
-        <v>1.027421167596354</v>
+        <v>0.9345396520555936</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036075007842542</v>
+        <v>1.029908731725327</v>
       </c>
       <c r="J21">
-        <v>1.038042931109162</v>
+        <v>1.001805681525684</v>
       </c>
       <c r="K21">
-        <v>1.039285440841275</v>
+        <v>1.010076688010916</v>
       </c>
       <c r="L21">
-        <v>1.038880545533248</v>
+        <v>0.9970921895929457</v>
       </c>
       <c r="M21">
-        <v>1.03103352806295</v>
+        <v>0.9508772066698626</v>
       </c>
       <c r="N21">
-        <v>1.016468455663752</v>
+        <v>1.003429367531473</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030546390791541</v>
+        <v>0.9656840124415725</v>
       </c>
       <c r="D22">
-        <v>1.035025465932148</v>
+        <v>0.990940280529225</v>
       </c>
       <c r="E22">
-        <v>1.034458949577079</v>
+        <v>0.9768838716924798</v>
       </c>
       <c r="F22">
-        <v>1.026091395421553</v>
+        <v>0.9266132123547921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035812094203495</v>
+        <v>1.027969766117288</v>
       </c>
       <c r="J22">
-        <v>1.03741714851243</v>
+        <v>0.9980079144209381</v>
       </c>
       <c r="K22">
-        <v>1.038738355078544</v>
+        <v>1.0066933743296</v>
       </c>
       <c r="L22">
-        <v>1.038174034094882</v>
+        <v>0.9929276063846586</v>
       </c>
       <c r="M22">
-        <v>1.029839219765174</v>
+        <v>0.9437935263484165</v>
       </c>
       <c r="N22">
-        <v>1.016252324873489</v>
+        <v>1.002097619040875</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031011763247647</v>
+        <v>0.9685460241912582</v>
       </c>
       <c r="D23">
-        <v>1.035385385653617</v>
+        <v>0.9931067438446883</v>
       </c>
       <c r="E23">
-        <v>1.034903723184135</v>
+        <v>0.9794843119562762</v>
       </c>
       <c r="F23">
-        <v>1.026796510335344</v>
+        <v>0.9308490404341666</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035951649130397</v>
+        <v>1.029005880143139</v>
       </c>
       <c r="J23">
-        <v>1.037749058644144</v>
+        <v>1.00003585617663</v>
       </c>
       <c r="K23">
-        <v>1.039028546773545</v>
+        <v>1.008499995637702</v>
       </c>
       <c r="L23">
-        <v>1.038548712620227</v>
+        <v>0.9951509206503282</v>
       </c>
       <c r="M23">
-        <v>1.030472559101098</v>
+        <v>0.9475790960249499</v>
       </c>
       <c r="N23">
-        <v>1.016366980607635</v>
+        <v>1.002808738641787</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032841119490046</v>
+        <v>0.9793926813946227</v>
       </c>
       <c r="D24">
-        <v>1.036799956251528</v>
+        <v>1.001330756554752</v>
       </c>
       <c r="E24">
-        <v>1.036652847011957</v>
+        <v>0.989355916027564</v>
       </c>
       <c r="F24">
-        <v>1.02956862869817</v>
+        <v>0.9468112624404641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036497095969671</v>
+        <v>1.032909372666671</v>
       </c>
       <c r="J24">
-        <v>1.039051991611901</v>
+        <v>1.007707738059326</v>
       </c>
       <c r="K24">
-        <v>1.040167228475965</v>
+        <v>1.015334542850186</v>
       </c>
       <c r="L24">
-        <v>1.040020631806259</v>
+        <v>1.00357256820358</v>
       </c>
       <c r="M24">
-        <v>1.032961287966321</v>
+        <v>0.9618415782943786</v>
       </c>
       <c r="N24">
-        <v>1.016816587076623</v>
+        <v>1.00549901652266</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034958446422227</v>
+        <v>0.9912143335460162</v>
       </c>
       <c r="D25">
-        <v>1.038436642739641</v>
+        <v>1.010316446261836</v>
       </c>
       <c r="E25">
-        <v>1.038678826902359</v>
+        <v>1.000144980233058</v>
       </c>
       <c r="F25">
-        <v>1.032778056244497</v>
+        <v>0.9640658042821629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037121907204055</v>
+        <v>1.037115053095843</v>
       </c>
       <c r="J25">
-        <v>1.040556322957963</v>
+        <v>1.016041031577229</v>
       </c>
       <c r="K25">
-        <v>1.041480908794401</v>
+        <v>1.022756696107174</v>
       </c>
       <c r="L25">
-        <v>1.041722336251369</v>
+        <v>1.012741045986918</v>
       </c>
       <c r="M25">
-        <v>1.03584011302242</v>
+        <v>0.9772488014510995</v>
       </c>
       <c r="N25">
-        <v>1.017334684130749</v>
+        <v>1.00842025626324</v>
       </c>
     </row>
   </sheetData>
